--- a/data_table/MoveEffect.xlsx
+++ b/data_table/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -181,6 +181,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -190,7 +227,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,58 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -264,27 +265,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,24 +311,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,39 +529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,6 +562,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,6 +612,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -620,15 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,19 +649,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,112 +670,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1287,7 +1287,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>

--- a/data_table/MoveEffect.xlsx
+++ b/data_table/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1142,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>15008002</v>
+        <v>15008009</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/MoveEffect.xlsx
+++ b/data_table/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,8 @@
           </rPr>
           <t xml:space="preserve">
 0 目标单位点
-1 技能目标点</t>
+1 技能目标点
+2 方向最大距离(强制按照 ‘自身到技能点的方向’移动 ，  )</t>
         </r>
       </text>
     </comment>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -89,12 +90,15 @@
     <t>moveSpeed</t>
   </si>
   <si>
-    <t>moveTargetPos</t>
+    <t>moveTargetPosType</t>
   </si>
   <si>
     <t>endPosType</t>
   </si>
   <si>
+    <t>lastTime</t>
+  </si>
+  <si>
     <t>startEffectList</t>
   </si>
   <si>
@@ -137,6 +141,9 @@
     <t>移动终点类型</t>
   </si>
   <si>
+    <t>持续时间(无目标点类型适用)(*1000)</t>
+  </si>
+  <si>
     <t>开始的时候触发的效果列表</t>
   </si>
   <si>
@@ -153,6 +160,9 @@
   </si>
   <si>
     <t>上官翎技能3位移</t>
+  </si>
+  <si>
+    <t>位移测试</t>
   </si>
 </sst>
 </file>
@@ -329,12 +339,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -637,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,16 +665,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,10 +686,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,28 +710,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -724,19 +740,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,39 +761,45 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -791,6 +810,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1140,30 +1165,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
-    <col min="9" max="11" width="24.875" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="10" max="12" width="24.875" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1175,7 +1201,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1196,115 +1222,163 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+    <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>16001001</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2">
         <v>16000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2"/>
+      <c r="I4">
         <v>14001002</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>14001002</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>16001010</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I6">
+        <v>18001010</v>
+      </c>
+      <c r="K6">
+        <v>18001010</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>15008009</v>
       </c>
     </row>

--- a/data_table/MoveEffect.xlsx
+++ b/data_table/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1332,10 +1332,10 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4">
-        <v>14001002</v>
+        <v>18001004</v>
       </c>
       <c r="K4">
-        <v>14001002</v>
+        <v>18001004</v>
       </c>
       <c r="L4">
         <v>1</v>

--- a/data_table/MoveEffect.xlsx
+++ b/data_table/MoveEffect.xlsx
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1322,7 +1322,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="2">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>

--- a/data_table/MoveEffect.xlsx
+++ b/data_table/MoveEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -73,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -118,6 +131,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -168,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -184,55 +200,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +257,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -322,7 +317,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,49 +370,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,121 +508,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,21 +561,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,6 +593,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,148 +666,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -820,52 +836,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1167,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1252,13 +1268,13 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -1269,43 +1285,43 @@
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1316,10 +1332,10 @@
         <v>16001001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>10000</v>
@@ -1352,10 +1368,10 @@
         <v>16001010</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>20000</v>
